--- a/xlsx/协同编辑_intext.xlsx
+++ b/xlsx/协同编辑_intext.xlsx
@@ -29,7 +29,7 @@
     <t>版本控制系统</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_协同编辑</t>
+    <t>政策_政策_维基百科_协同编辑</t>
   </si>
 </sst>
 </file>
